--- a/biology/Botanique/Jardin_des_plantes_de_La_Rochelle/Jardin_des_plantes_de_La_Rochelle.xlsx
+++ b/biology/Botanique/Jardin_des_plantes_de_La_Rochelle/Jardin_des_plantes_de_La_Rochelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin des plantes de La Rochelle est un jardin des plantes situé à côté du Muséum d'histoire naturelle de La Rochelle.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1629, le collège royal des Jésuites acquiert auprès du futur duc de Saint-Simon une partie de l'actuel jardin des plantes afin de le relier au collège par un passage souterrain voûté.
 Un hôtel est construit à l'emplacement de l'ancien jardin des Jésuites pour Jouin de la Tremblay, entre 1708 et 1718, sur les plans de Claude Masse. En 1775, la ville fait construire deux ailes, une au sud accolée à l'aile gauche de l'hôtel existant, sur le jardin du collège royal, l'autre au nord du jardin pour les dépendances et les écuries par Nicolas Marie Potain, architecte du roi, et Julien Nassivet, architecte de la ville de la Rochelle, qui avait succédé à son père, Gilles Nassivet.
